--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori5/42/word_level_predictions_42.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori5/42/word_level_predictions_42.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
